--- a/run-easyexcel/src/main/resources/template_fill_sample.xlsx
+++ b/run-easyexcel/src/main/resources/template_fill_sample.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghao/Documents/work/code/cn.howardliu/effective-java/run-easyexcel/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxh/work/code/jvm/cn.howardliu/effective-java/run-easyexcel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296ED417-0D97-CB47-9152-A668D42BC4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="5900" windowWidth="27840" windowHeight="16940" xr2:uid="{ADCBB53A-C5C8-5D41-9697-3A252A0340C4}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="32940" windowHeight="20500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,20 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>数字</t>
-  </si>
-  <si>
     <t>忽略</t>
   </si>
   <si>
-    <t>空</t>
-  </si>
-  <si>
     <t>{name}</t>
   </si>
   <si>
@@ -62,14 +61,21 @@
   </si>
   <si>
     <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <rPh sb="0" eb="1">
+      <t>nian'l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +86,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -108,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,47 +443,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD2800-D377-474E-9BCF-66977B18885E}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
